--- a/docs/AlphabetSoutpBig-O.xlsx
+++ b/docs/AlphabetSoutpBig-O.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\PycharmProjects\alphabetsoup\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AFBD8A-E254-49E7-920D-84DB048D17A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="method_!" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="method 1 stats" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="method_!" sheetId="1" r:id="rId1"/>
+    <sheet name="method 1 stats" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,31 +31,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
-    <t xml:space="preserve">Test Ord.</t>
+    <t>Test Or.</t>
   </si>
   <si>
-    <t xml:space="preserve">m</t>
+    <t>m</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
+    <t>s</t>
   </si>
   <si>
-    <t xml:space="preserve">time [sec]</t>
+    <t>time [sec]</t>
   </si>
   <si>
-    <t xml:space="preserve">s/m</t>
+    <t>s/m</t>
+  </si>
+  <si>
+    <t>cProfile [seconds]</t>
+  </si>
+  <si>
+    <t>Iteration Or.</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Elapsed Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -54,38 +76,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,7 +92,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -105,49 +100,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -206,15 +170,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -223,7 +205,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -231,7 +213,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -252,6 +234,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -259,12 +242,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -273,19 +253,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -294,7 +281,13 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -336,17 +329,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6958-4AA5-ADFF-3E75B4414C5F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -355,19 +350,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -376,7 +378,13 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -418,17 +426,19 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6958-4AA5-ADFF-3E75B4414C5F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -437,19 +447,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -458,7 +475,13 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -485,22 +508,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.001</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.003</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6958-4AA5-ADFF-3E75B4414C5F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -508,12 +544,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="20867744"/>
-        <c:axId val="35680492"/>
+        <c:smooth val="0"/>
+        <c:axId val="78539831"/>
+        <c:axId val="5211067"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20867744"/>
+        <c:axId val="78539831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +562,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -536,23 +572,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35680492"/>
+        <c:crossAx val="5211067"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35680492"/>
+        <c:axId val="5211067"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +600,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -582,16 +620,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20867744"/>
+        <c:crossAx val="78539831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -616,35 +655,42 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -654,18 +700,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>414720</xdr:colOff>
+      <xdr:colOff>414360</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>224280</xdr:rowOff>
+      <xdr:rowOff>223920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6837480" y="149400"/>
-        <a:ext cx="4584240" cy="2741760"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -678,23 +730,315 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="L16:M16 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="8.67"/>
+    <col min="1" max="1025" width="8.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,254 +1055,600 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">C2/B2</f>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F11" si="0">C2/B2</f>
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <f aca="false">C3/B3</f>
-        <v>2.16666666666667</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <f aca="false">C4/B4</f>
-        <v>4.33333333333333</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>104</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <f aca="false">C5/B5</f>
-        <v>4.33333333333333</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>1040</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <f aca="false">C6/B6</f>
-        <v>43.3333333333333</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>43.333333333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>1056</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>1040</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <f aca="false">C7/B7</f>
-        <v>0.984848484848485</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98484848484848486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>2016</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>4784</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <f aca="false">C8/B8</f>
-        <v>2.37301587301587</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="D8" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.373015873015873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>3936</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>3936</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <f aca="false">C9/B9</f>
+      <c r="D9" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">B9-B8</f>
+      <c r="H9" s="1">
+        <f>B9-B8</f>
         <v>1920</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <f aca="false">D9-D8</f>
-        <v>0.002</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <f aca="false">B9/H9</f>
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="I9" s="1">
+        <f>D9-D8</f>
+        <v>2E-3</v>
+      </c>
+      <c r="K9" s="1">
+        <f>B9/H9</f>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>7776</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>18824</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <f aca="false">C10/B10</f>
-        <v>2.42078189300412</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">B10-B9</f>
+      <c r="D10" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4207818930041154</v>
+      </c>
+      <c r="H10" s="1">
+        <f>B10-B9</f>
         <v>3840</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <f aca="false">D10-D9</f>
-        <v>0.002</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <f aca="false">B10/H10</f>
-        <v>2.025</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="I10" s="1">
+        <f>D10-D9</f>
+        <v>2E-3</v>
+      </c>
+      <c r="K10" s="1">
+        <f>B10/H10</f>
+        <v>2.0249999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>15456</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>37544</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">C11/B11</f>
-        <v>2.42908902691511</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">B11-B10</f>
+      <c r="D11" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.429089026915114</v>
+      </c>
+      <c r="H11" s="1">
+        <f>B11-B10</f>
         <v>7680</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <f aca="false">D11-D10</f>
-        <v>0.002</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <f aca="false">B11/H11</f>
-        <v>2.0125</v>
+      <c r="I11" s="1">
+        <f>D11-D10</f>
+        <v>2E-3</v>
+      </c>
+      <c r="K11" s="1">
+        <f>B11/H11</f>
+        <v>2.0125000000000002</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+    <col min="1" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L4">
+        <f>MAX(B4:K4)</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(B4:K4)</f>
+        <v>3.3799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L5">
+        <f>MAX(B5:K5)</f>
+        <v>0.05</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE(B5:K5)</f>
+        <v>4.1099999999999991E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="L18">
+        <f>MAX(B18:K18)</f>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="M18">
+        <f>AVERAGE(B18:K18)</f>
+        <v>1.40625E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I19">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="L19">
+        <f>MAX(B19:K19)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGE(B19:K19)</f>
+        <v>1.40625E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/docs/AlphabetSoutpBig-O.xlsx
+++ b/docs/AlphabetSoutpBig-O.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\PycharmProjects\alphabetsoup\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD9787D-BD15-472C-9D50-05193A41DA7B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DC9F9-EF82-4D21-B791-6809F1FF1BB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alhabet soup time" sheetId="4" r:id="rId1"/>
@@ -1169,6 +1169,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="502581368"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1731,6 +1732,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="536701304"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2293,6 +2295,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="536706424"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2855,6 +2858,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="318353768"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3417,6 +3421,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="536705784"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3979,6 +3984,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="572929040"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7208,6 +7214,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="489869560"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7252,6 +7259,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="536690744"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -7265,6 +7273,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="536694904"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7827,6 +7836,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="567203920"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8389,6 +8399,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="567220560"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -17660,7 +17671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C400B05-7E21-4D51-BA91-BE3286C6597E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -17673,7 +17684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401D712-3C95-4B7D-A6C9-D3523789EABD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
